--- a/zavod/zavod/tests/fixtures/book_links.xlsx
+++ b/zavod/zavod/tests/fixtures/book_links.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>numeric</t>
   </si>
@@ -32,6 +32,9 @@
       <t>Hello, World!</t>
     </r>
   </si>
+  <si>
+    <t>blank_header_value</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -53,6 +56,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
@@ -63,6 +71,11 @@
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -89,11 +102,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,31 +331,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="4">
         <v>45133.0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
